--- a/BOI11.xlsx
+++ b/BOI11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="167"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="167"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
   <si>
     <t>Account</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Security Incident Involvement</t>
+  </si>
+  <si>
+    <t>Fred Anderson</t>
+  </si>
+  <si>
+    <t>Koepp Ltd</t>
   </si>
 </sst>
 </file>
@@ -927,8 +933,14 @@
       <c r="A18">
         <v>729833</v>
       </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" t="s">
         <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>

--- a/BOI11.xlsx
+++ b/BOI11.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
   <si>
     <t>Account</t>
   </si>
@@ -51,27 +51,15 @@
     <t>CPU</t>
   </si>
   <si>
-    <t>presented</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
     <t>Maintenance</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>declined</t>
-  </si>
-  <si>
     <t>Daniel Hilton</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>John Smith</t>
   </si>
   <si>
@@ -81,9 +69,6 @@
     <t>Wendy Yule</t>
   </si>
   <si>
-    <t>Monitor</t>
-  </si>
-  <si>
     <t>Juan Para</t>
   </si>
   <si>
@@ -108,10 +93,16 @@
     <t>Security Incident Involvement</t>
   </si>
   <si>
-    <t>Fred Anderson</t>
-  </si>
-  <si>
-    <t>Koepp Ltd</t>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Very bad</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -479,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -518,25 +509,25 @@
         <v>714466</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>30000</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -544,25 +535,25 @@
         <v>714466</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>10000</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -570,16 +561,16 @@
         <v>714466</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -588,7 +579,7 @@
         <v>5000</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -596,13 +587,13 @@
         <v>737550</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -614,7 +605,7 @@
         <v>35000</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -622,25 +613,25 @@
         <v>146832</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>65000</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -648,13 +639,13 @@
         <v>218895</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -666,7 +657,7 @@
         <v>40000</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -674,25 +665,25 @@
         <v>218895</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>10000</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -700,16 +691,16 @@
         <v>412290</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -718,7 +709,7 @@
         <v>5000</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -726,13 +717,13 @@
         <v>740150</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -744,7 +735,7 @@
         <v>35000</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -752,25 +743,25 @@
         <v>141962</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>65000</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -778,25 +769,25 @@
         <v>163416</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>30000</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -804,16 +795,16 @@
         <v>239344</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -822,7 +813,7 @@
         <v>5000</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -830,25 +821,25 @@
         <v>239344</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>10000</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -856,25 +847,25 @@
         <v>307599</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>7000</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -882,13 +873,13 @@
         <v>688981</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -900,7 +891,7 @@
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -908,51 +899,25 @@
         <v>729833</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
         <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>65000</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>729833</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>5000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/BOI11.xlsx
+++ b/BOI11.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="167"/>
+    <workbookView xWindow="7820" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="167"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>Account</t>
   </si>
@@ -43,30 +43,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Craig Booker</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Daniel Hilton</t>
-  </si>
-  <si>
-    <t>John Smith</t>
-  </si>
-  <si>
-    <t>Cedric Moss</t>
-  </si>
-  <si>
-    <t>Wendy Yule</t>
   </si>
   <si>
     <t>Juan Para</t>
@@ -109,9 +85,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -134,13 +126,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -506,422 +502,279 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>714466</v>
+        <v>105209</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>30000</v>
-      </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>714466</v>
+        <v>105209</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>10000</v>
-      </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>714466</v>
+        <v>105209</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>5000</v>
-      </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>737550</v>
+        <v>105209</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>35000</v>
-      </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>146832</v>
+        <v>104822</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>65000</v>
-      </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>218895</v>
+        <v>104822</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>40000</v>
-      </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>218895</v>
+        <v>104822</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>10000</v>
-      </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>412290</v>
+        <v>104822</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>5000</v>
-      </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>740150</v>
+        <v>978699</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>35000</v>
-      </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>141962</v>
+        <v>978699</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>65000</v>
-      </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>163416</v>
+        <v>978699</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>30000</v>
-      </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>239344</v>
+        <v>978699</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>5000</v>
-      </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>239344</v>
+        <v>958039</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>10000</v>
-      </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>307599</v>
+        <v>958039</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15">
-        <v>7000</v>
-      </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>688981</v>
+        <v>958039</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16">
-        <v>100000</v>
-      </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>729833</v>
+        <v>958039</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>65000</v>
-      </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/BOI11.xlsx
+++ b/BOI11.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="167"/>
+    <workbookView xWindow="2220" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="167"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
   <si>
     <t>Account</t>
   </si>
@@ -45,6 +45,51 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Craig Booker</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>presented</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>declined</t>
+  </si>
+  <si>
+    <t>Daniel Hilton</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Cedric Moss</t>
+  </si>
+  <si>
+    <t>Fred Anderson</t>
+  </si>
+  <si>
+    <t>Wendy Yule</t>
+  </si>
+  <si>
+    <t>Koepp Ltd</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
     <t>Juan Para</t>
   </si>
   <si>
@@ -67,43 +112,15 @@
   </si>
   <si>
     <t>Security Incident Involvement</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Very bad</t>
-  </si>
-  <si>
-    <t>Very good</t>
-  </si>
-  <si>
-    <t>Good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -126,17 +143,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -502,279 +515,448 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>105209</v>
+        <v>714466</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>30000</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>105209</v>
+        <v>714466</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>105209</v>
+        <v>714466</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>5000</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>105209</v>
+        <v>737550</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>35000</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>104822</v>
+        <v>146832</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>65000</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>104822</v>
+        <v>218895</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7">
+        <v>40000</v>
+      </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>104822</v>
+        <v>218895</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>104822</v>
+        <v>412290</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>978699</v>
+        <v>740150</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>35000</v>
+      </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>978699</v>
+        <v>141962</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>65000</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>978699</v>
+        <v>163416</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
       <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30000</v>
+      </c>
+      <c r="H12" t="s">
         <v>10</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>978699</v>
+        <v>239344</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>5000</v>
+      </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>958039</v>
+        <v>239344</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
       </c>
       <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10000</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>958039</v>
+        <v>307599</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>7000</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>958039</v>
+        <v>688981</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
       </c>
       <c r="F16">
         <v>5</v>
       </c>
+      <c r="G16">
+        <v>100000</v>
+      </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>958039</v>
+        <v>729833</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>65000</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>729833</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>5000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/BOI11.xlsx
+++ b/BOI11.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="167"/>
+    <workbookView xWindow="9380" yWindow="7840" windowWidth="16380" windowHeight="8200" tabRatio="167"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>Account</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>presented</t>
-  </si>
-  <si>
-    <t>Software</t>
   </si>
   <si>
     <t>Maintenance</t>
@@ -118,9 +115,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -143,13 +156,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -518,13 +563,13 @@
         <v>714466</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -544,16 +589,16 @@
         <v>714466</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -570,16 +615,16 @@
         <v>714466</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -588,7 +633,7 @@
         <v>5000</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -596,16 +641,16 @@
         <v>737550</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -614,7 +659,7 @@
         <v>35000</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -622,13 +667,13 @@
         <v>146832</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -640,7 +685,7 @@
         <v>65000</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -648,13 +693,13 @@
         <v>218895</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -666,7 +711,7 @@
         <v>40000</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -674,16 +719,16 @@
         <v>218895</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -700,16 +745,16 @@
         <v>412290</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -718,7 +763,7 @@
         <v>5000</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -726,13 +771,13 @@
         <v>740150</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -744,7 +789,7 @@
         <v>35000</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -752,13 +797,13 @@
         <v>141962</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -770,7 +815,7 @@
         <v>65000</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -778,13 +823,13 @@
         <v>163416</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -804,16 +849,16 @@
         <v>239344</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -822,7 +867,7 @@
         <v>5000</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -830,16 +875,16 @@
         <v>239344</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -856,16 +901,16 @@
         <v>307599</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -874,7 +919,7 @@
         <v>7000</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -882,13 +927,13 @@
         <v>688981</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -900,7 +945,7 @@
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -908,16 +953,16 @@
         <v>729833</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -926,7 +971,7 @@
         <v>65000</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -934,16 +979,16 @@
         <v>729833</v>
       </c>
       <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
         <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -957,6 +1002,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/BOI11.xlsx
+++ b/BOI11.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>Account</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Maintenance</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>declined</t>
   </si>
   <si>
@@ -75,18 +72,9 @@
     <t>Cedric Moss</t>
   </si>
   <si>
-    <t>Fred Anderson</t>
-  </si>
-  <si>
     <t>Wendy Yule</t>
   </si>
   <si>
-    <t>Koepp Ltd</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
     <t>Juan Para</t>
   </si>
   <si>
@@ -109,6 +97,9 @@
   </si>
   <si>
     <t>Security Incident Involvement</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -156,8 +147,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -178,7 +179,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -187,6 +188,11 @@
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -195,6 +201,11 @@
     <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -563,13 +574,13 @@
         <v>714466</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -589,13 +600,13 @@
         <v>714466</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -615,13 +626,13 @@
         <v>714466</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -633,7 +644,7 @@
         <v>5000</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -641,13 +652,13 @@
         <v>737550</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -659,7 +670,7 @@
         <v>35000</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -667,13 +678,13 @@
         <v>146832</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -685,7 +696,7 @@
         <v>65000</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -693,13 +704,13 @@
         <v>218895</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -711,7 +722,7 @@
         <v>40000</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -719,13 +730,13 @@
         <v>218895</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -737,7 +748,7 @@
         <v>10000</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -745,13 +756,13 @@
         <v>412290</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -763,7 +774,7 @@
         <v>5000</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -771,13 +782,13 @@
         <v>740150</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -789,7 +800,7 @@
         <v>35000</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -797,13 +808,13 @@
         <v>141962</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -815,7 +826,7 @@
         <v>65000</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -823,13 +834,13 @@
         <v>163416</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -841,7 +852,7 @@
         <v>30000</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -849,13 +860,13 @@
         <v>239344</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -875,13 +886,13 @@
         <v>239344</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -893,7 +904,7 @@
         <v>10000</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -901,13 +912,13 @@
         <v>307599</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -919,7 +930,7 @@
         <v>7000</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -927,13 +938,13 @@
         <v>688981</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -945,7 +956,7 @@
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -953,13 +964,13 @@
         <v>729833</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -971,33 +982,7 @@
         <v>65000</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>729833</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>5000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
